--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -1213,7 +1213,11 @@
           <t>Greg</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -2465,11 +2469,7 @@
           <t>Greg</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -988,7 +988,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2005,16 +2005,8 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -1779,10 +1779,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1846,7 +1850,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1918,7 +1922,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1958,33 +1962,13 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2045,11 +2029,19 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2082,7 +2074,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2090,7 +2082,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2121,7 +2113,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1750 ELKHORN</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2129,7 +2121,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #386 +RX, WALES</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2172,7 +2164,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1750 ELKHORN</t>
+          <t>201 E MORRISSEY DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2180,7 +2172,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #386 +RX, WALES</t>
+          <t>405 N WALES ROAD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2223,7 +2215,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>201 E MORRISSEY DRIVE, SUITE 100</t>
+          <t>https://goo.gl/maps/xYN7FT5gMzQk78dv6</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2231,7 +2223,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>405 N WALES ROAD</t>
+          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2260,17 +2252,13 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/xYN7FT5gMzQk78dv6</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2298,14 +2286,26 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2333,28 +2333,12 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -2396,9 +2380,21 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2432,22 +2428,26 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2485,24 +2485,24 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2542,28 +2542,20 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2606,12 +2598,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2653,12 +2645,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2700,15 +2692,19 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2747,17 +2743,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2798,12 +2794,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2849,12 +2845,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2896,12 +2892,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -2955,12 +2951,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3018,17 +3014,18 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3069,18 +3066,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3121,12 +3117,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3176,12 +3172,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3217,21 +3213,9 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3297,7 +3281,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3334,7 +3322,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3373,7 +3361,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3412,7 +3400,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
+          <t>36500 AURORA DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3451,7 +3439,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>36500 AURORA DRIVE, SUITE 100</t>
+          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3487,7 +3475,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
+          <t>USE MOB ENTRANCE. DOORS OPEN AT 6:00 AM</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3532,11 +3520,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>USE MOB ENTRANCE. DOORS OPEN AT 6:00 AM</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3566,9 +3550,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3595,19 +3591,15 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
@@ -3648,16 +3640,8 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -3842,7 +3842,11 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Beer needs to be split into seperate categories</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3758,7 +3758,11 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>9:00 AM START</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3789,7 +3793,11 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3820,7 +3828,11 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>*NEW ACCOUNT</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -3851,7 +3863,11 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>DELAFIELD LIQUOR, WAUKESHA</t>
+        </is>
+      </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -3890,7 +3906,11 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>518 DELAFIELD ST</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -3934,6 +3954,95 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3758,11 +3758,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>9:00 AM START</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3793,11 +3789,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3828,11 +3820,7 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>*NEW ACCOUNT</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -3863,11 +3851,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>DELAFIELD LIQUOR, WAUKESHA</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -3906,11 +3890,7 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>518 DELAFIELD ST</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -3954,95 +3934,6 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -1580,7 +1580,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>*coming in late</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -1290,7 +1290,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Supv Rx, Training</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Supv Rx, Training</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Supv Rx, Training</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,7 +1606,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1108, LOMIRA</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1740,7 +1740,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>375 EAST AVENUE, SUITE 1</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HZvTzhm2zfv</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1881,11 +1881,7 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>APPROX 8:30/9:30 AM START</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1939,13 +1935,21 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1978,13 +1982,21 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2014,11 +2026,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>213 N MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2057,11 +2065,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2100,7 +2104,11 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2138,21 +2146,13 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2189,21 +2189,13 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2241,7 +2233,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>KEWASKUM CORNER MART CITGO</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2276,7 +2272,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>516 MAIN ST</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>https://maps.app.goo.gl/NV3ysJwfEsdYWXJn8</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2470,7 +2470,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>KEWASKUM CORNER MART CITGO</t>
+          <t>THIENSVILLE BP - S MAIN ST</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2529,7 +2529,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>516 MAIN ST</t>
+          <t>246 S MAIN ST</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2580,7 +2580,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/NV3ysJwfEsdYWXJn8</t>
+          <t>https://maps.app.goo.gl/HZadE4wzwohiwsrW8</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2625,11 +2625,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2671,13 +2667,21 @@
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Red Van, Equip</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2722,13 +2726,21 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>THIENSVILLE BP - S MAIN ST</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2774,11 +2786,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>246 S MAIN ST</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2825,11 +2833,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/HZadE4wzwohiwsrW8</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2876,7 +2880,11 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2922,21 +2930,13 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Red Van, Equip</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -2985,21 +2985,13 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3050,7 +3042,12 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>WEST BEND BP - 
+E WASHINGTON</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3101,7 +3098,11 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2825 E WASHINGTON ST</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3154,7 +3155,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3197,7 +3198,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3263,8 +3264,8 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>WEST BEND BP - 
-E WASHINGTON</t>
+          <t xml:space="preserve">WEST BEND MOBIL - 
+W WASHINGTON </t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3303,7 +3304,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>2825 E WASHINGTON ST</t>
+          <t>2333 W WASHINGTON ST</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3342,7 +3343,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
+          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3379,11 +3380,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3417,13 +3414,21 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3452,14 +3457,21 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEST BEND MOBIL - 
-W WASHINGTON </t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3501,11 +3513,7 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>2333 W WASHINGTON ST</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3532,11 +3540,7 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3613,21 +3617,9 @@
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3656,21 +3648,9 @@
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3846,12 +3826,12 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Beer needs to be split into seperate categories</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -3877,21 +3857,9 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -3918,17 +3886,17 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -3938,6 +3906,45 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,16 +548,40 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -579,16 +603,40 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -614,12 +662,28 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -628,11 +692,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -649,8 +709,16 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
@@ -659,44 +727,28 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11:30 AM START</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -709,7 +761,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PAID SUPV APPRECIATION LUNCH</t>
+          <t>11:30 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -717,7 +769,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -725,7 +777,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -733,7 +785,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -741,7 +793,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -756,7 +808,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>GREAT DANE PUB &amp; BREWING CO., MADISON</t>
+          <t>PAID SUPV APPRECIATION LUNCH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -764,7 +816,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>METRO #384 +RX, MUKWONAGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -772,7 +824,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>METRO #380 +RX, SUSSEX</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -780,7 +832,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PICK #871 +RX, KENOSHA - NORTH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -788,7 +840,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -803,7 +855,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>876 JUPITER DR</t>
+          <t>GREAT DANE PUB &amp; BREWING CO., MADISON</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -811,7 +863,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1010 ROCHESTER STREET</t>
+          <t>METRO #384 +RX, MUKWONAGO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -819,7 +871,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>N65 W24838 MAIN ST</t>
+          <t>METRO #380 +RX, SUSSEX</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -827,7 +879,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2811 - 18TH STREET</t>
+          <t>PICK #871 +RX, KENOSHA - NORTH</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -835,7 +887,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1115 UNION GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -850,7 +902,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/JRhP3a9ZEqppeBgL9</t>
+          <t>876 JUPITER DR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -858,7 +910,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t3wTJ4RYJq82</t>
+          <t>1010 ROCHESTER STREET</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -866,7 +918,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9vhkJiNzSVT2</t>
+          <t>N65 W24838 MAIN ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -874,7 +926,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tq1opM5rw242</t>
+          <t>2811 - 18TH STREET</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -882,7 +934,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>4310 67TH DRIVE</t>
+          <t>AURORA OUTPATIENT RX #1115 UNION GROVE</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -897,20 +949,15 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.greatdanepub.com/menu/</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>&lt;&lt; Great Dane
-&lt;&lt; Menu</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/JRhP3a9ZEqppeBgL9</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>https://goo.gl/maps/t3wTJ4RYJq82</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -918,7 +965,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/9vhkJiNzSVT2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -926,7 +973,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/tq1opM5rw242</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -934,7 +981,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7d8P5BJ5vQyPjos7</t>
+          <t>4310 67TH DRIVE</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -947,21 +994,38 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.greatdanepub.com/menu/</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>&lt;&lt; Great Dane
+&lt;&lt; Menu</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>DAIRY &amp; LIQUOR RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -969,7 +1033,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>NEED THE 4208 SCANNERS DUE TO THE LIGHTING IN THIS STORE - ALSO NEED SCANNER HOODS</t>
+          <t>https://goo.gl/maps/T7d8P5BJ5vQyPjos7</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -981,56 +1045,32 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>DAIRY &amp; LIQUOR RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NEED THE 4208 SCANNERS DUE TO THE LIGHTING IN THIS STORE - ALSO NEED SCANNER HOODS</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1042,76 +1082,55 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1122,67 +1141,76 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1193,68 +1221,64 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1268,56 +1292,52 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Supv Rx, Training</t>
+          <t>Until 10:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Supv Rx, Training</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1326,8 +1346,16 @@
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
@@ -1339,56 +1367,56 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Supv Rx, Training</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Supv Rx, Training</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1410,48 +1438,56 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1461,11 +1497,7 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -1477,52 +1509,48 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1534,7 +1562,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1548,65 +1576,64 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>*coming in late</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1620,60 +1647,65 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>*coming in late</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1687,48 +1719,48 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1740,7 +1772,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1754,52 +1786,48 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1811,7 +1839,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1825,36 +1853,36 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1865,23 +1893,26 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1893,36 +1924,36 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1931,25 +1962,26 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1960,23 +1992,43 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -1984,17 +2036,17 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2005,8 +2057,16 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2018,16 +2078,24 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2041,25 +2109,17 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2082,7 +2142,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2090,7 +2150,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2098,17 +2158,13 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>PICK #366 +RX, HALES CORNERS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2125,7 +2181,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1750 ELKHORN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2133,7 +2189,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>PICK #386 +RX, WALES</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2141,7 +2197,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>5800 S 108TH ST</t>
+          <t>PICK #366 +RX, HALES CORNERS</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2149,7 +2205,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2168,7 +2224,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>201 E MORRISSEY DRIVE, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1750 ELKHORN</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2176,7 +2232,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>405 N WALES ROAD</t>
+          <t>PICK #386 +RX, WALES</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2184,7 +2240,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zX1XvNMo8SU2</t>
+          <t>5800 S 108TH ST</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2192,7 +2248,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2211,7 +2267,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xYN7FT5gMzQk78dv6</t>
+          <t>201 E MORRISSEY DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2219,7 +2275,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
+          <t>405 N WALES ROAD</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2227,7 +2283,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/zX1XvNMo8SU2</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2235,7 +2291,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>KEWASKUM CORNER MART CITGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2252,13 +2308,17 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/xYN7FT5gMzQk78dv6</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2266,7 +2326,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DAIRY RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2274,7 +2334,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>516 MAIN ST</t>
+          <t>KEWASKUM CORNER MART CITGO</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2290,38 +2350,30 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>DAIRY RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/NV3ysJwfEsdYWXJn8</t>
+          <t>516 MAIN ST</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2337,34 +2389,38 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/NV3ysJwfEsdYWXJn8</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2384,38 +2440,30 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2432,37 +2480,33 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2470,7 +2514,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>THIENSVILLE BP - S MAIN ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2489,47 +2533,43 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Supv Rx, Training</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>246 S MAIN ST</t>
+          <t>THIENSVILLE BP - S MAIN ST</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2546,41 +2586,49 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Supv Rx, Training</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/HZadE4wzwohiwsrW8</t>
+          <t>246 S MAIN ST</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2602,30 +2650,38 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HZadE4wzwohiwsrW8</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2645,43 +2701,31 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2700,45 +2744,41 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Red Van, Equip</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
@@ -2759,35 +2799,47 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2806,12 +2858,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2822,12 +2874,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2853,12 +2905,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2869,22 +2921,18 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2904,12 +2952,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -2920,12 +2968,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2933,7 +2981,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2955,12 +3003,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -2971,24 +3019,20 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3010,29 +3054,28 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3044,8 +3087,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>WEST BEND BP - 
-E WASHINGTON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3067,28 +3109,29 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3100,7 +3143,8 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>2825 E WASHINGTON ST</t>
+          <t>WEST BEND BP - 
+E WASHINGTON</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3122,12 +3166,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3138,12 +3182,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3155,7 +3199,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
+          <t>2825 E WASHINGTON ST</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3177,28 +3221,40 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>16)</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3218,9 +3274,21 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3229,7 +3297,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3254,18 +3322,13 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEST BEND MOBIL - 
-W WASHINGTON </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3286,17 +3349,13 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3304,7 +3363,8 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>2333 W WASHINGTON ST</t>
+          <t xml:space="preserve">WEST BEND MOBIL - 
+W WASHINGTON </t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3327,7 +3387,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3335,7 +3395,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3343,7 +3403,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
+          <t>2333 W WASHINGTON ST</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3366,7 +3426,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3374,13 +3434,17 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>7540 22ND AVE</t>
+          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3401,7 +3465,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>36500 AURORA DRIVE, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3409,26 +3473,14 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+          <t>7540 22ND AVE</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3448,28 +3500,32 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
+          <t>36500 AURORA DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -3491,30 +3547,30 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>USE MOB ENTRANCE. DOORS OPEN AT 6:00 AM</t>
+          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3532,12 +3588,28 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>USE MOB ENTRANCE. DOORS OPEN AT 6:00 AM</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3558,21 +3630,9 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3599,22 +3659,22 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>7:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3636,14 +3696,22 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>7:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3674,7 +3742,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3705,7 +3773,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY - SELLING TO LAKHBIR</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3736,7 +3804,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>ADDISON STATION MOBIL, HARTFORD</t>
+          <t>*SALE INVENTORY - SELLING TO LAKHBIR</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3767,7 +3835,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>5022 ADDISON RD</t>
+          <t>ADDISON STATION MOBIL, HARTFORD</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -3798,7 +3866,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/nLpfnynwKxnnBFrw5</t>
+          <t>5022 ADDISON RD</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -3829,7 +3897,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Beer needs to be split into seperate categories</t>
+          <t>https://maps.app.goo.gl/nLpfnynwKxnnBFrw5</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -3858,7 +3926,11 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Beer needs to be split into seperate categories</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -3884,21 +3956,9 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
@@ -3925,17 +3985,17 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -3945,6 +4005,45 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -2672,7 +2672,8 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Rx,
+Until 11:45</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -2088,7 +2088,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3562,16 +3562,8 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>

--- a/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Milwaukee Schedule.xlsx
@@ -2982,7 +2982,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>5:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3562,7 +3562,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
